--- a/Tables/BMS TAB.xlsx
+++ b/Tables/BMS TAB.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A777B50A-2C83-410F-ADBE-495B602A6B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D38904-B769-46C1-B141-02946C8E7707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{754B2221-18A2-4AFB-8AAE-12EE4DA6F7C7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{754B2221-18A2-4AFB-8AAE-12EE4DA6F7C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
     <sheet name="Лист4" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="155">
   <si>
     <t>SOC=35%</t>
   </si>
@@ -419,13 +420,97 @@
   </si>
   <si>
     <t>05</t>
+  </si>
+  <si>
+    <t>0x401400</t>
+  </si>
+  <si>
+    <t>0x407005</t>
+  </si>
+  <si>
+    <t>0x407004</t>
+  </si>
+  <si>
+    <t>0x40701A</t>
+  </si>
+  <si>
+    <t>0x407019</t>
+  </si>
+  <si>
+    <t>0x407018</t>
+  </si>
+  <si>
+    <t>0x407017</t>
+  </si>
+  <si>
+    <t>0x407016</t>
+  </si>
+  <si>
+    <t>0x407015</t>
+  </si>
+  <si>
+    <t>0x407014</t>
+  </si>
+  <si>
+    <t>0x407013</t>
+  </si>
+  <si>
+    <t>0x407012</t>
+  </si>
+  <si>
+    <t>0x407011</t>
+  </si>
+  <si>
+    <t>0x407010</t>
+  </si>
+  <si>
+    <t>0x40700F</t>
+  </si>
+  <si>
+    <t>0x40700D</t>
+  </si>
+  <si>
+    <t>0x40700C</t>
+  </si>
+  <si>
+    <t>0x40700B</t>
+  </si>
+  <si>
+    <t>0x40700A</t>
+  </si>
+  <si>
+    <t>0x407003</t>
+  </si>
+  <si>
+    <t>0x407002</t>
+  </si>
+  <si>
+    <t>0x40703B</t>
+  </si>
+  <si>
+    <t>0x407006</t>
+  </si>
+  <si>
+    <t>0x250001</t>
+  </si>
+  <si>
+    <t>0x407007</t>
+  </si>
+  <si>
+    <t>0x407008</t>
+  </si>
+  <si>
+    <t>0x407009</t>
+  </si>
+  <si>
+    <t>group Контрольные параметры</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,6 +547,19 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -483,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -496,6 +594,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1573,10 +1677,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E3F775-03EE-41F1-9EF3-F69C42344E20}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1587,9 +1691,10 @@
     <col min="4" max="8" width="8.88671875" style="4"/>
     <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
@@ -1623,8 +1728,14 @@
       <c r="M1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
@@ -1659,8 +1770,14 @@
       <c r="M2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -1695,8 +1812,14 @@
       <c r="M3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
@@ -1731,8 +1854,14 @@
       <c r="M4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
@@ -1767,8 +1896,14 @@
       <c r="M5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -1803,8 +1938,14 @@
       <c r="M6" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D7" s="4" t="s">
         <v>55</v>
       </c>
@@ -1831,7 +1972,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>36</v>
       </c>
@@ -1863,8 +2004,14 @@
       <c r="M8" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1893,8 +2040,11 @@
       <c r="M9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1923,8 +2073,11 @@
       <c r="M10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
@@ -1956,8 +2109,14 @@
       <c r="M11" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>111</v>
       </c>
@@ -1987,8 +2146,12 @@
       <c r="M12" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="4"/>
+      <c r="O12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
@@ -2020,8 +2183,14 @@
       <c r="M13" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>99</v>
       </c>
@@ -2051,8 +2220,12 @@
       <c r="M14" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14" s="4"/>
+      <c r="O14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -2080,8 +2253,9 @@
       <c r="M15" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -2109,8 +2283,9 @@
       <c r="M16" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
@@ -2142,8 +2317,14 @@
       <c r="M17" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>110</v>
       </c>
@@ -2173,8 +2354,12 @@
       <c r="M18" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N18" s="4"/>
+      <c r="O18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>112</v>
       </c>
@@ -2204,8 +2389,12 @@
       <c r="M19" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="4"/>
+      <c r="O19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>41</v>
       </c>
@@ -2234,8 +2423,14 @@
       <c r="M20" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>107</v>
       </c>
@@ -2259,8 +2454,12 @@
       <c r="M21" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N21" s="4"/>
+      <c r="O21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>113</v>
       </c>
@@ -2284,8 +2483,12 @@
       <c r="M22" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="4"/>
+      <c r="O22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>42</v>
       </c>
@@ -2314,8 +2517,14 @@
       <c r="M23" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>108</v>
       </c>
@@ -2339,8 +2548,12 @@
       <c r="M24" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N24" s="4"/>
+      <c r="O24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>114</v>
       </c>
@@ -2364,8 +2577,12 @@
       <c r="M25" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="4"/>
+      <c r="O25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>44</v>
       </c>
@@ -2394,8 +2611,14 @@
       <c r="M26" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>109</v>
       </c>
@@ -2419,8 +2642,12 @@
       <c r="M27" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N27" s="4"/>
+      <c r="O27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>115</v>
       </c>
@@ -2444,8 +2671,12 @@
       <c r="M28" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="4"/>
+      <c r="O28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -2474,8 +2705,14 @@
       <c r="M29" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>46</v>
       </c>
@@ -2504,8 +2741,14 @@
       <c r="M30" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>48</v>
       </c>
@@ -2534,8 +2777,14 @@
       <c r="M31" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
@@ -2543,6 +2792,7 @@
         <f t="shared" si="0"/>
         <v>0x</v>
       </c>
+      <c r="N32" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
@@ -3664,4 +3914,544 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9501D194-1812-40AB-B6E6-8C9A9BE5A86C}">
+  <dimension ref="A2:K30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="K3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="K4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="K5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="K6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="K7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="K8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="K11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="K12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="K13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="K14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="K15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="K16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="K17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="K18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="K19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="K20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="K21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="K22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="K23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="K24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="K25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="K26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="K27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="K28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="K29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="K30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tables/BMS TAB.xlsx
+++ b/Tables/BMS TAB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D38904-B769-46C1-B141-02946C8E7707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEEA50F-7469-4CE0-9D71-9633F893007F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{754B2221-18A2-4AFB-8AAE-12EE4DA6F7C7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{754B2221-18A2-4AFB-8AAE-12EE4DA6F7C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="159">
   <si>
     <t>SOC=35%</t>
   </si>
@@ -504,6 +504,18 @@
   </si>
   <si>
     <t>group Контрольные параметры</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>5F</t>
+  </si>
+  <si>
+    <t>31</t>
   </si>
 </sst>
 </file>
@@ -1630,7 +1642,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2856,10 +2868,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0B2491-46A0-4444-9977-FE5C6A73EC53}">
-  <dimension ref="A1:AA18"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20:Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3274,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" ref="K8:K18" si="17">HEX2DEC(A8)</f>
+        <f t="shared" ref="K8:K24" si="17">HEX2DEC(A8)</f>
         <v>65</v>
       </c>
       <c r="L8">
@@ -3306,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="str">
-        <f t="shared" ref="T8:T18" si="25">CHAR(K8)</f>
+        <f t="shared" ref="T8:T24" si="25">CHAR(K8)</f>
         <v>A</v>
       </c>
       <c r="U8" t="str">
@@ -3767,7 +3779,7 @@
         <v>_x000B_</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
@@ -3849,7 +3861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3909,6 +3921,374 @@
       <c r="T18" t="str">
         <f t="shared" si="25"/>
         <v>_x0017_</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T19" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ref="L20" si="32">HEX2DEC(B20)</f>
+        <v>86</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ref="M20" si="33">HEX2DEC(C20)</f>
+        <v>77</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ref="N20" si="34">HEX2DEC(D20)</f>
+        <v>85</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ref="O20" si="35">HEX2DEC(E20)</f>
+        <v>95</v>
+      </c>
+      <c r="P20">
+        <f t="shared" ref="P20" si="36">HEX2DEC(F20)</f>
+        <v>78</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" ref="Q20" si="37">HEX2DEC(G20)</f>
+        <v>49</v>
+      </c>
+      <c r="R20">
+        <f t="shared" ref="R20" si="38">HEX2DEC(H20)</f>
+        <v>0</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="25"/>
+        <v>_x0003_</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" ref="U20:U24" si="39">CHAR(L20)</f>
+        <v>V</v>
+      </c>
+      <c r="V20" t="str">
+        <f t="shared" ref="V20:V24" si="40">CHAR(M20)</f>
+        <v>M</v>
+      </c>
+      <c r="W20" t="str">
+        <f t="shared" ref="W20:W24" si="41">CHAR(N20)</f>
+        <v>U</v>
+      </c>
+      <c r="X20" t="str">
+        <f t="shared" ref="X20:X24" si="42">CHAR(O20)</f>
+        <v>_</v>
+      </c>
+      <c r="Y20" t="str">
+        <f t="shared" ref="Y20:Y24" si="43">CHAR(P20)</f>
+        <v>N</v>
+      </c>
+      <c r="Z20" t="str">
+        <f t="shared" ref="Z20:Z24" si="44">CHAR(Q20)</f>
+        <v>1</v>
+      </c>
+      <c r="AA20" t="e">
+        <f t="shared" ref="AA20" si="45">CHAR(R20)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T21" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U21" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V21" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W21" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X21" t="e">
+        <f t="shared" si="42"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y21" t="e">
+        <f t="shared" si="43"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z21" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22">
+        <v>30</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ref="L22:L24" si="46">HEX2DEC(B22)</f>
+        <v>50</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ref="M22:M24" si="47">HEX2DEC(C22)</f>
+        <v>46</v>
+      </c>
+      <c r="N22">
+        <f t="shared" ref="N22:N24" si="48">HEX2DEC(D22)</f>
+        <v>48</v>
+      </c>
+      <c r="O22">
+        <f t="shared" ref="O22:O24" si="49">HEX2DEC(E22)</f>
+        <v>46</v>
+      </c>
+      <c r="P22">
+        <f t="shared" ref="P22:P24" si="50">HEX2DEC(F22)</f>
+        <v>48</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" ref="Q22:Q24" si="51">HEX2DEC(G22)</f>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f t="shared" ref="R22:R24" si="52">HEX2DEC(H22)</f>
+        <v>0</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="25"/>
+        <v>_x0005_</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="V22" t="str">
+        <f t="shared" si="40"/>
+        <v>.</v>
+      </c>
+      <c r="W22" t="str">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="X22" t="str">
+        <f t="shared" si="42"/>
+        <v>.</v>
+      </c>
+      <c r="Y22" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="T23" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U23" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V23" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W23" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X23" t="e">
+        <f t="shared" si="42"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y23" t="e">
+        <f t="shared" si="43"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z23" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24">
+        <v>30</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="46"/>
+        <v>49</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="47"/>
+        <v>46</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="48"/>
+        <v>49</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="49"/>
+        <v>46</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="50"/>
+        <v>48</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="25"/>
+        <v>_x0005_</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" si="40"/>
+        <v>.</v>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="X24" t="str">
+        <f t="shared" si="42"/>
+        <v>.</v>
+      </c>
+      <c r="Y24" t="str">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -3920,7 +4300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9501D194-1812-40AB-B6E6-8C9A9BE5A86C}">
   <dimension ref="A2:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>

--- a/Tables/BMS TAB.xlsx
+++ b/Tables/BMS TAB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEEA50F-7469-4CE0-9D71-9633F893007F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463D27D1-DFDC-4012-9AAE-A15BEA5AFEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{754B2221-18A2-4AFB-8AAE-12EE4DA6F7C7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{754B2221-18A2-4AFB-8AAE-12EE4DA6F7C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
     <sheet name="Лист4" sheetId="4" r:id="rId4"/>
     <sheet name="Лист5" sheetId="5" r:id="rId5"/>
+    <sheet name="Ошибки ТАБ" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="322">
   <si>
     <t>SOC=35%</t>
   </si>
@@ -516,6 +517,495 @@
   </si>
   <si>
     <t>31</t>
+  </si>
+  <si>
+    <t>bit 0 – “Overcurrent”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 1 – “Undervoltage”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 2 – “Overvoltage”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 3 – “Low DCH temperature”, temperature is too low for discharging</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 4 – “High DCH temperature”, temperature is too high for discharging</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 5 – “Battery cover”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 6 – “High humidity”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 7 – “Water”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 8 – “High logic temperature”, some BMS Logic board is overheated</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 9 – “Logic offline”, connection with some BMS Logic board is lost</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 10 – “Critical error”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 11 – “Crown error”, connection with the Crown forklift is lost</t>
+  </si>
+  <si>
+    <t>bit 12 – “Cell count error”, number of cells in incorrect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 13 – “HYG offline”, connection with the HYG forklift is lost</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 14 – “Need acknowledgement”, errors were detected in the past and should be acknowledged</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 15 – “Combilift offline”, connection with the Combilift forklift is lost</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 16 – “Short circuit”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 17 – “High contactor temperature”, the discharging contactor is overheated</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 18 – “Logic count error”, number of BMS Logic boards is incorrect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 19 – “ADC error”, battery current cannot be measured by ADC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 20 – “Current sensor error”, wires which connect the current sensor with the BMS are damaged</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 21 – “CH contactor cycles error”, the charging contactor switches very often</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 22 – “DCH contactor cycles error”, the discharging contactor switches very often</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 23 – “Shunt offline”, connection with the BMS Current sensor is lost</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 24 – “Shunt error”, internal error of the BMS Current sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 25 – “Settings error”, checksum of the setting is incorrect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 26 – “WDT reset”, boards is reset by the watchdog timer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 27 – “No temperature sensors”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 28 – “Temperature sensor is shorted”</t>
+  </si>
+  <si>
+    <t>bit 29 – “Spirit offline”, connection with the Spirit truck is lost</t>
+  </si>
+  <si>
+    <t>bit 0 – “Low CH temperature”, temperature is too low for charging</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 1 – “High CH temperature”, temperature is too high for charging</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 2 – “SD mount error”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 3 – “SD read/write error”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 4 – “Unallowable charging”, charging the battery through the discharging contactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 5 – “Stuck contactor”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 6 – “CH contactor feedback error”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 7 – “DCH contactor feedback error”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 8 – “Insulation fault”</t>
+  </si>
+  <si>
+    <t>reg2</t>
+  </si>
+  <si>
+    <t>reg1</t>
+  </si>
+  <si>
+    <t>0x1</t>
+  </si>
+  <si>
+    <t>0x2</t>
+  </si>
+  <si>
+    <t>0x4</t>
+  </si>
+  <si>
+    <t>0x8</t>
+  </si>
+  <si>
+    <t>0x10</t>
+  </si>
+  <si>
+    <t>0x20</t>
+  </si>
+  <si>
+    <t>0x40</t>
+  </si>
+  <si>
+    <t>0x80</t>
+  </si>
+  <si>
+    <t>0x100</t>
+  </si>
+  <si>
+    <t>0x200</t>
+  </si>
+  <si>
+    <t>0x400</t>
+  </si>
+  <si>
+    <t>0x800</t>
+  </si>
+  <si>
+    <t>0x1000</t>
+  </si>
+  <si>
+    <t>0x2000</t>
+  </si>
+  <si>
+    <t>0x4000</t>
+  </si>
+  <si>
+    <t>0x8000</t>
+  </si>
+  <si>
+    <t>0x10000</t>
+  </si>
+  <si>
+    <t>0x20000</t>
+  </si>
+  <si>
+    <t>0x40000</t>
+  </si>
+  <si>
+    <t>0x80000</t>
+  </si>
+  <si>
+    <t>0x100000</t>
+  </si>
+  <si>
+    <t>0x200000</t>
+  </si>
+  <si>
+    <t>0x400000</t>
+  </si>
+  <si>
+    <t>0x800000</t>
+  </si>
+  <si>
+    <t>0x1000000</t>
+  </si>
+  <si>
+    <t>0x2000000</t>
+  </si>
+  <si>
+    <t>0x4000000</t>
+  </si>
+  <si>
+    <t>0x8000000</t>
+  </si>
+  <si>
+    <t>0x10000000</t>
+  </si>
+  <si>
+    <t>0x20000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> temperature is too low for discharging</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> temperature is too high for discharging</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> some BMS Logic board is overheated</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> connection with some BMS Logic board is lost</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> connection with the Crown forklift is lost</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> number of cells in incorrect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> connection with the HYG forklift is lost</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> errors were detected in the past and should be acknowledged</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> connection with the Combilift forklift is lost</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the discharging contactor is overheated</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> number of BMS Logic boards is incorrect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> battery current cannot be measured by ADC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wires which connect the current sensor with the BMS are damaged</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the charging contactor switches very often</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the discharging contactor switches very often</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> connection with the BMS Current sensor is lost</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> internal error of the BMS Current sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> checksum of the setting is incorrect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> boards is reset by the watchdog timer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> connection with the Spirit truck is lost</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> temperature is too low for charging</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> temperature is too high for charging</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> charging the battery through the discharging contactor</t>
+  </si>
+  <si>
+    <t>bit 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Overcurrent”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Undervoltage”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Overvoltage”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Low DCH temperature”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “High DCH temperature”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Battery cover”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “High humidity”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Water”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “High logic temperature”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Logic offline”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Critical error”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Crown error”</t>
+  </si>
+  <si>
+    <t>bit 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Cell count error”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “HYG offline”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Need acknowledgement”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Combilift offline”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Short circuit”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “High contactor temperature”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Logic count error”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “ADC error”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Current sensor error”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “CH contactor cycles error”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “DCH contactor cycles error”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Shunt offline”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Shunt error”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Settings error”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “WDT reset”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “No temperature sensors”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bit 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Temperature sensor is shorted”</t>
+  </si>
+  <si>
+    <t>bit 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Spirit offline”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Low CH temperature”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “High CH temperature”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “SD mount error”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “SD read/write error”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Unallowable charging”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Stuck contactor”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “CH contactor feedback error”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “DCH contactor feedback error”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Insulation fault”</t>
   </si>
 </sst>
 </file>
@@ -1691,7 +2181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E3F775-03EE-41F1-9EF3-F69C42344E20}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
@@ -2870,7 +3360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0B2491-46A0-4444-9977-FE5C6A73EC53}">
   <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U20" sqref="U20:Z20"/>
     </sheetView>
   </sheetViews>
@@ -4300,7 +4790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9501D194-1812-40AB-B6E6-8C9A9BE5A86C}">
   <dimension ref="A2:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -4834,4 +5324,691 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED026DEA-8398-4810-981D-95D7D1F2AEEB}">
+  <dimension ref="A1:Q48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:I48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="83" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="I9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="I10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="I15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="I16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="I17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="I18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="I19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="I21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="I22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="I24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="I25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="I26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="I27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="I29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="I30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="I32" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="I33" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I34" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="I35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="I36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="I37" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="I40" t="str">
+        <f>J40&amp;"000"</f>
+        <v>0x100000000</v>
+      </c>
+      <c r="J40" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" ref="I41:I48" si="0">J41&amp;"000"</f>
+        <v>0x200000000</v>
+      </c>
+      <c r="J41" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="0"/>
+        <v>0x400000000</v>
+      </c>
+      <c r="J42" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="0"/>
+        <v>0x800000000</v>
+      </c>
+      <c r="J43" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="0"/>
+        <v>0x1000000000</v>
+      </c>
+      <c r="J44" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="0"/>
+        <v>0x2000000000</v>
+      </c>
+      <c r="J45" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
+        <v>0x4000000000</v>
+      </c>
+      <c r="J46" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="0"/>
+        <v>0x8000000000</v>
+      </c>
+      <c r="J47" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="0"/>
+        <v>0x10000000000</v>
+      </c>
+      <c r="J48" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tables/BMS TAB.xlsx
+++ b/Tables/BMS TAB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463D27D1-DFDC-4012-9AAE-A15BEA5AFEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8AC129-FE7E-4A41-AFE4-A05499205B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{754B2221-18A2-4AFB-8AAE-12EE4DA6F7C7}"/>
+    <workbookView xWindow="17076" yWindow="3528" windowWidth="11856" windowHeight="8916" activeTab="3" xr2:uid="{754B2221-18A2-4AFB-8AAE-12EE4DA6F7C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="329">
   <si>
     <t>SOC=35%</t>
   </si>
@@ -1006,6 +1006,27 @@
   </si>
   <si>
     <t xml:space="preserve"> “Insulation fault”</t>
+  </si>
+  <si>
+    <t>C0</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>A2</t>
   </si>
 </sst>
 </file>
@@ -3358,10 +3379,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0B2491-46A0-4444-9977-FE5C6A73EC53}">
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AA34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U20" sqref="U20:Z20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3374,9 +3395,7 @@
     <col min="6" max="6" width="3.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="4" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="2.109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="2.77734375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="2.33203125" bestFit="1" customWidth="1"/>
@@ -4778,6 +4797,692 @@
       </c>
       <c r="Z24" t="e">
         <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <f t="shared" ref="K25:K26" si="53">HEX2DEC(A25)</f>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ref="L25:L26" si="54">HEX2DEC(B25)</f>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ref="M25:M26" si="55">HEX2DEC(C25)</f>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ref="N25:N26" si="56">HEX2DEC(D25)</f>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f t="shared" ref="O25:O26" si="57">HEX2DEC(E25)</f>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" ref="P25:P26" si="58">HEX2DEC(F25)</f>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" ref="Q25:Q26" si="59">HEX2DEC(G25)</f>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f t="shared" ref="R25:R26" si="60">HEX2DEC(H25)</f>
+        <v>0</v>
+      </c>
+      <c r="T25" t="e">
+        <f t="shared" ref="T25:T26" si="61">CHAR(K25)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U25" t="e">
+        <f t="shared" ref="U25:U26" si="62">CHAR(L25)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V25" t="e">
+        <f t="shared" ref="V25:V26" si="63">CHAR(M25)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W25" t="e">
+        <f t="shared" ref="W25:W26" si="64">CHAR(N25)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X25" t="e">
+        <f t="shared" ref="X25:X26" si="65">CHAR(O25)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y25" t="e">
+        <f t="shared" ref="Y25:Y26" si="66">CHAR(P25)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z25" t="e">
+        <f t="shared" ref="Z25:Z26" si="67">CHAR(Q25)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="54"/>
+        <v>192</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="55"/>
+        <v>168</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="56"/>
+        <v>37</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="57"/>
+        <v>118</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="T26" t="e">
+        <f t="shared" si="61"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="62"/>
+        <v>А</v>
+      </c>
+      <c r="V26" t="str">
+        <f t="shared" si="63"/>
+        <v>Ё</v>
+      </c>
+      <c r="W26" t="str">
+        <f t="shared" si="64"/>
+        <v>%</v>
+      </c>
+      <c r="X26" t="str">
+        <f t="shared" si="65"/>
+        <v>v</v>
+      </c>
+      <c r="Y26" t="e">
+        <f t="shared" si="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z26" t="e">
+        <f t="shared" si="67"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="K27">
+        <f t="shared" ref="K27:K28" si="68">HEX2DEC(A27)</f>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ref="L27:L28" si="69">HEX2DEC(B27)</f>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ref="M27:M28" si="70">HEX2DEC(C27)</f>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ref="N27:N28" si="71">HEX2DEC(D27)</f>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" ref="O27:O28" si="72">HEX2DEC(E27)</f>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f t="shared" ref="P27:P28" si="73">HEX2DEC(F27)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" ref="Q27:Q28" si="74">HEX2DEC(G27)</f>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" ref="R27:R28" si="75">HEX2DEC(H27)</f>
+        <v>0</v>
+      </c>
+      <c r="T27" t="e">
+        <f t="shared" ref="T27:T28" si="76">CHAR(K27)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U27" t="e">
+        <f t="shared" ref="U27:U28" si="77">CHAR(L27)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V27" t="e">
+        <f t="shared" ref="V27:V28" si="78">CHAR(M27)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W27" t="e">
+        <f t="shared" ref="W27:W28" si="79">CHAR(N27)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X27" t="e">
+        <f t="shared" ref="X27:X28" si="80">CHAR(O27)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y27" t="e">
+        <f t="shared" ref="Y27:Y28" si="81">CHAR(P27)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z27" t="e">
+        <f t="shared" ref="Z27:Z28" si="82">CHAR(Q27)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>325</v>
+      </c>
+      <c r="C28">
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>326</v>
+      </c>
+      <c r="E28" t="s">
+        <v>327</v>
+      </c>
+      <c r="F28">
+        <v>99</v>
+      </c>
+      <c r="G28" t="s">
+        <v>328</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="69"/>
+        <v>180</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="70"/>
+        <v>82</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="71"/>
+        <v>169</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="72"/>
+        <v>212</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="73"/>
+        <v>153</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="74"/>
+        <v>162</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="T28" t="e">
+        <f t="shared" si="76"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="77"/>
+        <v>ґ</v>
+      </c>
+      <c r="V28" t="str">
+        <f t="shared" si="78"/>
+        <v>R</v>
+      </c>
+      <c r="W28" t="str">
+        <f t="shared" si="79"/>
+        <v>©</v>
+      </c>
+      <c r="X28" t="str">
+        <f t="shared" si="80"/>
+        <v>Ф</v>
+      </c>
+      <c r="Y28" t="str">
+        <f t="shared" si="81"/>
+        <v>™</v>
+      </c>
+      <c r="Z28" t="str">
+        <f t="shared" si="82"/>
+        <v>ў</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="K29">
+        <f t="shared" ref="K29:K30" si="83">HEX2DEC(A29)</f>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f t="shared" ref="L29:L30" si="84">HEX2DEC(B29)</f>
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f t="shared" ref="M29:M30" si="85">HEX2DEC(C29)</f>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="shared" ref="N29:N30" si="86">HEX2DEC(D29)</f>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" ref="O29:O30" si="87">HEX2DEC(E29)</f>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f t="shared" ref="P29:P30" si="88">HEX2DEC(F29)</f>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" ref="Q29:Q30" si="89">HEX2DEC(G29)</f>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f t="shared" ref="R29:R30" si="90">HEX2DEC(H29)</f>
+        <v>0</v>
+      </c>
+      <c r="T29" t="e">
+        <f t="shared" ref="T29:T30" si="91">CHAR(K29)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U29" t="e">
+        <f t="shared" ref="U29:U30" si="92">CHAR(L29)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V29" t="e">
+        <f t="shared" ref="V29:V30" si="93">CHAR(M29)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W29" t="e">
+        <f t="shared" ref="W29:W30" si="94">CHAR(N29)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X29" t="e">
+        <f t="shared" ref="X29:X30" si="95">CHAR(O29)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y29" t="e">
+        <f t="shared" ref="Y29:Y30" si="96">CHAR(P29)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z29" t="e">
+        <f t="shared" ref="Z29:Z30" si="97">CHAR(Q29)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>322</v>
+      </c>
+      <c r="C30" t="s">
+        <v>323</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>64</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="84"/>
+        <v>192</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="85"/>
+        <v>168</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="87"/>
+        <v>100</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="T30" t="e">
+        <f t="shared" si="91"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="92"/>
+        <v>А</v>
+      </c>
+      <c r="V30" t="str">
+        <f t="shared" si="93"/>
+        <v>Ё</v>
+      </c>
+      <c r="W30" t="e">
+        <f t="shared" si="94"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X30" t="str">
+        <f t="shared" si="95"/>
+        <v>d</v>
+      </c>
+      <c r="Y30" t="e">
+        <f t="shared" si="96"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z30" t="e">
+        <f t="shared" si="97"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="K31">
+        <f t="shared" ref="K31:K34" si="98">HEX2DEC(A31)</f>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ref="L31:L34" si="99">HEX2DEC(B31)</f>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ref="M31:M34" si="100">HEX2DEC(C31)</f>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31:N34" si="101">HEX2DEC(D31)</f>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ref="O31:O34" si="102">HEX2DEC(E31)</f>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" ref="P31:P34" si="103">HEX2DEC(F31)</f>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" ref="Q31:Q34" si="104">HEX2DEC(G31)</f>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" ref="R31:R34" si="105">HEX2DEC(H31)</f>
+        <v>0</v>
+      </c>
+      <c r="T31" t="e">
+        <f t="shared" ref="T31:T34" si="106">CHAR(K31)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U31" t="e">
+        <f t="shared" ref="U31:U34" si="107">CHAR(L31)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V31" t="e">
+        <f t="shared" ref="V31:V34" si="108">CHAR(M31)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W31" t="e">
+        <f t="shared" ref="W31:W34" si="109">CHAR(N31)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X31" t="e">
+        <f t="shared" ref="X31:X34" si="110">CHAR(O31)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y31" t="e">
+        <f t="shared" ref="Y31:Y34" si="111">CHAR(P31)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z31" t="e">
+        <f t="shared" ref="Z31:Z34" si="112">CHAR(Q31)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="99"/>
+        <v>255</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="100"/>
+        <v>255</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="T32" t="e">
+        <f t="shared" si="106"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U32" t="str">
+        <f t="shared" si="107"/>
+        <v>я</v>
+      </c>
+      <c r="V32" t="str">
+        <f t="shared" si="108"/>
+        <v>я</v>
+      </c>
+      <c r="W32" t="e">
+        <f t="shared" si="109"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X32" t="e">
+        <f t="shared" si="110"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y32" t="e">
+        <f t="shared" si="111"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z32" t="e">
+        <f t="shared" si="112"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="K33">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="T33" t="e">
+        <f t="shared" si="106"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U33" t="e">
+        <f t="shared" si="107"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V33" t="e">
+        <f t="shared" si="108"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W33" t="e">
+        <f t="shared" si="109"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X33" t="e">
+        <f t="shared" si="110"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y33" t="e">
+        <f t="shared" si="111"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z33" t="e">
+        <f t="shared" si="112"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>322</v>
+      </c>
+      <c r="C34" t="s">
+        <v>323</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="99"/>
+        <v>192</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="100"/>
+        <v>168</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="T34" t="e">
+        <f t="shared" si="106"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U34" t="str">
+        <f t="shared" si="107"/>
+        <v>А</v>
+      </c>
+      <c r="V34" t="str">
+        <f t="shared" si="108"/>
+        <v>Ё</v>
+      </c>
+      <c r="W34" t="e">
+        <f t="shared" si="109"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X34" t="str">
+        <f t="shared" si="110"/>
+        <v>_x0001_</v>
+      </c>
+      <c r="Y34" t="e">
+        <f t="shared" si="111"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z34" t="e">
+        <f t="shared" si="112"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -5330,7 +6035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED026DEA-8398-4810-981D-95D7D1F2AEEB}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8:I48"/>
     </sheetView>
   </sheetViews>
